--- a/SalesTesting.xlsx
+++ b/SalesTesting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -68,6 +68,9 @@
   </x:si>
   <x:si>
     <x:t>User should be navigated to the Account Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Modified Step</x:t>
   </x:si>
   <x:si>
     <x:t>Step 2</x:t>
@@ -1005,7 +1008,9 @@
       </x:c>
       <x:c r="I2" s="0" t="s"/>
       <x:c r="J2" s="0" t="s"/>
-      <x:c r="K2" s="0" t="s"/>
+      <x:c r="K2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="0" t="s"/>
@@ -1014,13 +1019,13 @@
       <x:c r="D3" s="0" t="s"/>
       <x:c r="E3" s="0" t="s"/>
       <x:c r="F3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s"/>
       <x:c r="J3" s="0" t="s"/>
@@ -1033,13 +1038,13 @@
       <x:c r="D4" s="0" t="s"/>
       <x:c r="E4" s="0" t="s"/>
       <x:c r="F4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s"/>
       <x:c r="J4" s="0" t="s"/>
@@ -1052,13 +1057,13 @@
       <x:c r="D5" s="0" t="s"/>
       <x:c r="E5" s="0" t="s"/>
       <x:c r="F5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
@@ -1071,13 +1076,13 @@
       <x:c r="D6" s="0" t="s"/>
       <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
@@ -1090,13 +1095,13 @@
       <x:c r="D7" s="0" t="s"/>
       <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
@@ -1109,13 +1114,13 @@
       <x:c r="D8" s="0" t="s"/>
       <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
@@ -1128,13 +1133,13 @@
       <x:c r="D9" s="0" t="s"/>
       <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
@@ -1142,13 +1147,13 @@
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>14</x:v>
@@ -1174,13 +1179,13 @@
       <x:c r="D11" s="0" t="s"/>
       <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
@@ -1193,13 +1198,13 @@
       <x:c r="D12" s="0" t="s"/>
       <x:c r="E12" s="0" t="s"/>
       <x:c r="F12" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
@@ -1212,13 +1217,13 @@
       <x:c r="D13" s="0" t="s"/>
       <x:c r="E13" s="0" t="s"/>
       <x:c r="F13" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
@@ -1231,13 +1236,13 @@
       <x:c r="D14" s="0" t="s"/>
       <x:c r="E14" s="0" t="s"/>
       <x:c r="F14" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
@@ -1250,13 +1255,13 @@
       <x:c r="D15" s="0" t="s"/>
       <x:c r="E15" s="0" t="s"/>
       <x:c r="F15" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
@@ -1269,13 +1274,13 @@
       <x:c r="D16" s="0" t="s"/>
       <x:c r="E16" s="0" t="s"/>
       <x:c r="F16" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
@@ -1288,13 +1293,13 @@
       <x:c r="D17" s="0" t="s"/>
       <x:c r="E17" s="0" t="s"/>
       <x:c r="F17" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s"/>
       <x:c r="J17" s="0" t="s"/>
@@ -1302,26 +1307,26 @@
     </x:row>
     <x:row r="18" spans="1:11">
       <x:c r="A18" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s"/>
       <x:c r="F18" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
@@ -1332,17 +1337,17 @@
       <x:c r="B19" s="0" t="s"/>
       <x:c r="C19" s="0" t="s"/>
       <x:c r="D19" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s"/>
       <x:c r="F19" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s"/>
       <x:c r="J19" s="0" t="s"/>
@@ -1355,13 +1360,13 @@
       <x:c r="D20" s="0" t="s"/>
       <x:c r="E20" s="0" t="s"/>
       <x:c r="F20" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s"/>
       <x:c r="J20" s="0" t="s"/>
@@ -1374,13 +1379,13 @@
       <x:c r="D21" s="0" t="s"/>
       <x:c r="E21" s="0" t="s"/>
       <x:c r="F21" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s"/>
       <x:c r="J21" s="0" t="s"/>
@@ -1393,13 +1398,13 @@
       <x:c r="D22" s="0" t="s"/>
       <x:c r="E22" s="0" t="s"/>
       <x:c r="F22" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H22" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s"/>
       <x:c r="J22" s="0" t="s"/>
@@ -1412,13 +1417,13 @@
       <x:c r="D23" s="0" t="s"/>
       <x:c r="E23" s="0" t="s"/>
       <x:c r="F23" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H23" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s"/>
       <x:c r="J23" s="0" t="s"/>
@@ -1426,26 +1431,26 @@
     </x:row>
     <x:row r="24" spans="1:11">
       <x:c r="A24" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s"/>
       <x:c r="F24" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H24" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s"/>
       <x:c r="J24" s="0" t="s"/>
@@ -1458,13 +1463,13 @@
       <x:c r="D25" s="0" t="s"/>
       <x:c r="E25" s="0" t="s"/>
       <x:c r="F25" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H25" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s"/>
       <x:c r="J25" s="0" t="s"/>
@@ -1477,13 +1482,13 @@
       <x:c r="D26" s="0" t="s"/>
       <x:c r="E26" s="0" t="s"/>
       <x:c r="F26" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H26" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I26" s="0" t="s"/>
       <x:c r="J26" s="0" t="s"/>
@@ -1496,13 +1501,13 @@
       <x:c r="D27" s="0" t="s"/>
       <x:c r="E27" s="0" t="s"/>
       <x:c r="F27" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H27" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s"/>
       <x:c r="J27" s="0" t="s"/>
@@ -1515,13 +1520,13 @@
       <x:c r="D28" s="0" t="s"/>
       <x:c r="E28" s="0" t="s"/>
       <x:c r="F28" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H28" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s"/>
       <x:c r="J28" s="0" t="s"/>
@@ -1529,13 +1534,13 @@
     </x:row>
     <x:row r="29" spans="1:11">
       <x:c r="A29" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
         <x:v>14</x:v>
@@ -1561,13 +1566,13 @@
       <x:c r="D30" s="0" t="s"/>
       <x:c r="E30" s="0" t="s"/>
       <x:c r="F30" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H30" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I30" s="0" t="s"/>
       <x:c r="J30" s="0" t="s"/>
@@ -1580,13 +1585,13 @@
       <x:c r="D31" s="0" t="s"/>
       <x:c r="E31" s="0" t="s"/>
       <x:c r="F31" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H31" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I31" s="0" t="s"/>
       <x:c r="J31" s="0" t="s"/>
@@ -1594,13 +1599,13 @@
     </x:row>
     <x:row r="32" spans="1:11">
       <x:c r="A32" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
         <x:v>14</x:v>
@@ -1626,13 +1631,13 @@
       <x:c r="D33" s="0" t="s"/>
       <x:c r="E33" s="0" t="s"/>
       <x:c r="F33" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H33" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s"/>
       <x:c r="J33" s="0" t="s"/>
@@ -1645,13 +1650,13 @@
       <x:c r="D34" s="0" t="s"/>
       <x:c r="E34" s="0" t="s"/>
       <x:c r="F34" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H34" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I34" s="0" t="s"/>
       <x:c r="J34" s="0" t="s"/>
@@ -1659,13 +1664,13 @@
     </x:row>
     <x:row r="35" spans="1:11">
       <x:c r="A35" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
         <x:v>14</x:v>
@@ -1691,13 +1696,13 @@
       <x:c r="D36" s="0" t="s"/>
       <x:c r="E36" s="0" t="s"/>
       <x:c r="F36" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H36" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I36" s="0" t="s"/>
       <x:c r="J36" s="0" t="s"/>
@@ -1710,13 +1715,13 @@
       <x:c r="D37" s="0" t="s"/>
       <x:c r="E37" s="0" t="s"/>
       <x:c r="F37" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H37" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I37" s="0" t="s"/>
       <x:c r="J37" s="0" t="s"/>
@@ -1724,13 +1729,13 @@
     </x:row>
     <x:row r="38" spans="1:11">
       <x:c r="A38" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
         <x:v>14</x:v>
@@ -1756,13 +1761,13 @@
       <x:c r="D39" s="0" t="s"/>
       <x:c r="E39" s="0" t="s"/>
       <x:c r="F39" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H39" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I39" s="0" t="s"/>
       <x:c r="J39" s="0" t="s"/>
@@ -1775,13 +1780,13 @@
       <x:c r="D40" s="0" t="s"/>
       <x:c r="E40" s="0" t="s"/>
       <x:c r="F40" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H40" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I40" s="0" t="s"/>
       <x:c r="J40" s="0" t="s"/>
@@ -1789,13 +1794,13 @@
     </x:row>
     <x:row r="41" spans="1:11">
       <x:c r="A41" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
         <x:v>14</x:v>
@@ -1821,13 +1826,13 @@
       <x:c r="D42" s="0" t="s"/>
       <x:c r="E42" s="0" t="s"/>
       <x:c r="F42" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H42" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s"/>
       <x:c r="J42" s="0" t="s"/>
@@ -1840,13 +1845,13 @@
       <x:c r="D43" s="0" t="s"/>
       <x:c r="E43" s="0" t="s"/>
       <x:c r="F43" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G43" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H43" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I43" s="0" t="s"/>
       <x:c r="J43" s="0" t="s"/>
@@ -1854,13 +1859,13 @@
     </x:row>
     <x:row r="44" spans="1:11">
       <x:c r="A44" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
         <x:v>14</x:v>
@@ -1886,13 +1891,13 @@
       <x:c r="D45" s="0" t="s"/>
       <x:c r="E45" s="0" t="s"/>
       <x:c r="F45" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G45" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H45" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I45" s="0" t="s"/>
       <x:c r="J45" s="0" t="s"/>
@@ -1905,13 +1910,13 @@
       <x:c r="D46" s="0" t="s"/>
       <x:c r="E46" s="0" t="s"/>
       <x:c r="F46" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H46" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s"/>
       <x:c r="J46" s="0" t="s"/>
@@ -1919,13 +1924,13 @@
     </x:row>
     <x:row r="47" spans="1:11">
       <x:c r="A47" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
         <x:v>14</x:v>
@@ -1951,13 +1956,13 @@
       <x:c r="D48" s="0" t="s"/>
       <x:c r="E48" s="0" t="s"/>
       <x:c r="F48" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G48" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H48" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I48" s="0" t="s"/>
       <x:c r="J48" s="0" t="s"/>
@@ -1970,13 +1975,13 @@
       <x:c r="D49" s="0" t="s"/>
       <x:c r="E49" s="0" t="s"/>
       <x:c r="F49" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G49" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H49" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I49" s="0" t="s"/>
       <x:c r="J49" s="0" t="s"/>
@@ -1984,13 +1989,13 @@
     </x:row>
     <x:row r="50" spans="1:11">
       <x:c r="A50" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
         <x:v>14</x:v>
@@ -2016,13 +2021,13 @@
       <x:c r="D51" s="0" t="s"/>
       <x:c r="E51" s="0" t="s"/>
       <x:c r="F51" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H51" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I51" s="0" t="s"/>
       <x:c r="J51" s="0" t="s"/>
@@ -2035,13 +2040,13 @@
       <x:c r="D52" s="0" t="s"/>
       <x:c r="E52" s="0" t="s"/>
       <x:c r="F52" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G52" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H52" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I52" s="0" t="s"/>
       <x:c r="J52" s="0" t="s"/>
@@ -2055,7 +2060,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
         <x:v>14</x:v>
@@ -2065,10 +2070,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G53" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H53" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I53" s="0" t="s"/>
       <x:c r="J53" s="0" t="s"/>
@@ -2081,13 +2086,13 @@
       <x:c r="D54" s="0" t="s"/>
       <x:c r="E54" s="0" t="s"/>
       <x:c r="F54" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G54" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H54" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="I54" s="0" t="s"/>
       <x:c r="J54" s="0" t="s"/>
@@ -2099,16 +2104,16 @@
       <x:c r="C55" s="0" t="s"/>
       <x:c r="D55" s="0" t="s"/>
       <x:c r="E55" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F55" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G55" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H55" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I55" s="0" t="s"/>
       <x:c r="J55" s="0" t="s"/>
@@ -2120,16 +2125,16 @@
       <x:c r="C56" s="0" t="s"/>
       <x:c r="D56" s="0" t="s"/>
       <x:c r="E56" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H56" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I56" s="0" t="s"/>
       <x:c r="J56" s="0" t="s"/>
@@ -2141,16 +2146,16 @@
       <x:c r="C57" s="0" t="s"/>
       <x:c r="D57" s="0" t="s"/>
       <x:c r="E57" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F57" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G57" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H57" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I57" s="0" t="s"/>
       <x:c r="J57" s="0" t="s"/>
@@ -2162,16 +2167,16 @@
       <x:c r="C58" s="0" t="s"/>
       <x:c r="D58" s="0" t="s"/>
       <x:c r="E58" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H58" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s"/>
       <x:c r="J58" s="0" t="s"/>
@@ -2183,16 +2188,16 @@
       <x:c r="C59" s="0" t="s"/>
       <x:c r="D59" s="0" t="s"/>
       <x:c r="E59" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F59" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G59" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="H59" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="I59" s="0" t="s"/>
       <x:c r="J59" s="0" t="s"/>
@@ -2204,16 +2209,16 @@
       <x:c r="C60" s="0" t="s"/>
       <x:c r="D60" s="0" t="s"/>
       <x:c r="E60" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="H60" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="I60" s="0" t="s"/>
       <x:c r="J60" s="0" t="s"/>
@@ -2225,16 +2230,16 @@
       <x:c r="C61" s="0" t="s"/>
       <x:c r="D61" s="0" t="s"/>
       <x:c r="E61" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F61" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G61" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H61" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="I61" s="0" t="s"/>
       <x:c r="J61" s="0" t="s"/>
@@ -2247,13 +2252,13 @@
       <x:c r="D62" s="0" t="s"/>
       <x:c r="E62" s="0" t="s"/>
       <x:c r="F62" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G62" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H62" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="I62" s="0" t="s"/>
       <x:c r="J62" s="0" t="s"/>
@@ -2261,13 +2266,13 @@
     </x:row>
     <x:row r="63" spans="1:11">
       <x:c r="A63" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
         <x:v>14</x:v>
@@ -2277,7 +2282,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G63" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="H63" s="0" t="s">
         <x:v>17</x:v>
@@ -2293,13 +2298,13 @@
       <x:c r="D64" s="0" t="s"/>
       <x:c r="E64" s="0" t="s"/>
       <x:c r="F64" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G64" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="H64" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="I64" s="0" t="s"/>
       <x:c r="J64" s="0" t="s"/>
@@ -2307,13 +2312,13 @@
     </x:row>
     <x:row r="65" spans="1:11">
       <x:c r="A65" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
         <x:v>14</x:v>
@@ -2323,10 +2328,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G65" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="H65" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="I65" s="0" t="s"/>
       <x:c r="J65" s="0" t="s"/>
@@ -2339,13 +2344,13 @@
       <x:c r="D66" s="0" t="s"/>
       <x:c r="E66" s="0" t="s"/>
       <x:c r="F66" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G66" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H66" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="I66" s="0" t="s"/>
       <x:c r="J66" s="0" t="s"/>
@@ -2357,16 +2362,16 @@
       <x:c r="C67" s="0" t="s"/>
       <x:c r="D67" s="0" t="s"/>
       <x:c r="E67" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F67" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G67" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H67" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I67" s="0" t="s"/>
       <x:c r="J67" s="0" t="s"/>
@@ -2378,16 +2383,16 @@
       <x:c r="C68" s="0" t="s"/>
       <x:c r="D68" s="0" t="s"/>
       <x:c r="E68" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H68" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I68" s="0" t="s"/>
       <x:c r="J68" s="0" t="s"/>
@@ -2399,16 +2404,16 @@
       <x:c r="C69" s="0" t="s"/>
       <x:c r="D69" s="0" t="s"/>
       <x:c r="E69" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F69" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G69" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H69" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I69" s="0" t="s"/>
       <x:c r="J69" s="0" t="s"/>
@@ -2420,16 +2425,16 @@
       <x:c r="C70" s="0" t="s"/>
       <x:c r="D70" s="0" t="s"/>
       <x:c r="E70" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F70" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G70" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H70" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I70" s="0" t="s"/>
       <x:c r="J70" s="0" t="s"/>
@@ -2441,16 +2446,16 @@
       <x:c r="C71" s="0" t="s"/>
       <x:c r="D71" s="0" t="s"/>
       <x:c r="E71" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F71" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G71" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="H71" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="I71" s="0" t="s"/>
       <x:c r="J71" s="0" t="s"/>
@@ -2462,16 +2467,16 @@
       <x:c r="C72" s="0" t="s"/>
       <x:c r="D72" s="0" t="s"/>
       <x:c r="E72" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F72" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G72" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="H72" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="I72" s="0" t="s"/>
       <x:c r="J72" s="0" t="s"/>
@@ -2483,16 +2488,16 @@
       <x:c r="C73" s="0" t="s"/>
       <x:c r="D73" s="0" t="s"/>
       <x:c r="E73" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F73" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G73" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H73" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="I73" s="0" t="s"/>
       <x:c r="J73" s="0" t="s"/>
@@ -2505,13 +2510,13 @@
       <x:c r="D74" s="0" t="s"/>
       <x:c r="E74" s="0" t="s"/>
       <x:c r="F74" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G74" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H74" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="I74" s="0" t="s"/>
       <x:c r="J74" s="0" t="s"/>
@@ -2519,13 +2524,13 @@
     </x:row>
     <x:row r="75" spans="1:11">
       <x:c r="A75" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
         <x:v>14</x:v>
@@ -2535,10 +2540,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G75" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="H75" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="I75" s="0" t="s"/>
       <x:c r="J75" s="0" t="s"/>
@@ -2551,13 +2556,13 @@
       <x:c r="D76" s="0" t="s"/>
       <x:c r="E76" s="0" t="s"/>
       <x:c r="F76" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="H76" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="I76" s="0" t="s"/>
       <x:c r="J76" s="0" t="s"/>
@@ -2570,13 +2575,13 @@
       <x:c r="D77" s="0" t="s"/>
       <x:c r="E77" s="0" t="s"/>
       <x:c r="F77" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G77" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="H77" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="I77" s="0" t="s"/>
       <x:c r="J77" s="0" t="s"/>
@@ -2584,13 +2589,13 @@
     </x:row>
     <x:row r="78" spans="1:11">
       <x:c r="A78" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D78" s="0" t="s">
         <x:v>14</x:v>
@@ -2600,10 +2605,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G78" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="H78" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="I78" s="0" t="s"/>
       <x:c r="J78" s="0" t="s"/>
@@ -2615,16 +2620,16 @@
       <x:c r="C79" s="0" t="s"/>
       <x:c r="D79" s="0" t="s"/>
       <x:c r="E79" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F79" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G79" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H79" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="I79" s="0" t="s"/>
       <x:c r="J79" s="0" t="s"/>
@@ -2637,13 +2642,13 @@
       <x:c r="D80" s="0" t="s"/>
       <x:c r="E80" s="0" t="s"/>
       <x:c r="F80" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="H80" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I80" s="0" t="s"/>
       <x:c r="J80" s="0" t="s"/>
@@ -2651,13 +2656,13 @@
     </x:row>
     <x:row r="81" spans="1:11">
       <x:c r="A81" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D81" s="0" t="s">
         <x:v>14</x:v>
@@ -2667,10 +2672,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G81" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="H81" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="I81" s="0" t="s"/>
       <x:c r="J81" s="0" t="s"/>
@@ -2683,13 +2688,13 @@
       <x:c r="D82" s="0" t="s"/>
       <x:c r="E82" s="0" t="s"/>
       <x:c r="F82" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G82" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="H82" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="I82" s="0" t="s"/>
       <x:c r="J82" s="0" t="s"/>
@@ -2697,13 +2702,13 @@
     </x:row>
     <x:row r="83" spans="1:11">
       <x:c r="A83" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D83" s="0" t="s">
         <x:v>14</x:v>
@@ -2713,10 +2718,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G83" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="H83" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="I83" s="0" t="s"/>
       <x:c r="J83" s="0" t="s"/>
@@ -2728,16 +2733,16 @@
       <x:c r="C84" s="0" t="s"/>
       <x:c r="D84" s="0" t="s"/>
       <x:c r="E84" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F84" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G84" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H84" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="I84" s="0" t="s"/>
       <x:c r="J84" s="0" t="s"/>
@@ -2750,13 +2755,13 @@
       <x:c r="D85" s="0" t="s"/>
       <x:c r="E85" s="0" t="s"/>
       <x:c r="F85" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G85" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="H85" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="I85" s="0" t="s"/>
       <x:c r="J85" s="0" t="s"/>
@@ -2764,13 +2769,13 @@
     </x:row>
     <x:row r="86" spans="1:11">
       <x:c r="A86" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D86" s="0" t="s">
         <x:v>14</x:v>
@@ -2780,10 +2785,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G86" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="H86" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="I86" s="0" t="s"/>
       <x:c r="J86" s="0" t="s"/>
@@ -2796,13 +2801,13 @@
       <x:c r="D87" s="0" t="s"/>
       <x:c r="E87" s="0" t="s"/>
       <x:c r="F87" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G87" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="H87" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="I87" s="0" t="s"/>
       <x:c r="J87" s="0" t="s"/>
@@ -2815,13 +2820,13 @@
       <x:c r="D88" s="0" t="s"/>
       <x:c r="E88" s="0" t="s"/>
       <x:c r="F88" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G88" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="H88" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="I88" s="0" t="s"/>
       <x:c r="J88" s="0" t="s"/>
